--- a/biology/Neurosciences/Adrénergique/Adrénergique.xlsx
+++ b/biology/Neurosciences/Adrénergique/Adrénergique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adr%C3%A9nergique</t>
+          <t>Adrénergique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrénergique est un adjectif signifiant « qui agit par l'intermédiaire de l'adrénaline »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrénergique est un adjectif signifiant « qui agit par l'intermédiaire de l'adrénaline ».
 Un neurone adrénergique est un neurone qui soit libère de l'adrénaline par son arborisation terminale, soit la reçoit.
 Le terme s'emploie aussi pour le système nerveux végétatif orthosympathique car le neuromédiateur le plus courant est la noradrénaline.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adr%C3%A9nergique</t>
+          <t>Adrénergique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Marcel Garnier, Valery Delamare et al., Dictionnaire des termes techniques de médecine, Paris, Maloine, 1974, 19e éd.
